--- a/AAA/myRepo-master/cypress/fixtures/auto58.xlsx
+++ b/AAA/myRepo-master/cypress/fixtures/auto58.xlsx
@@ -353,7 +353,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -371,7 +371,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>100248</v>
+        <v>131887</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
